--- a/biology/Médecine/Paul_Reclus_(chirurgien)/Paul_Reclus_(chirurgien).xlsx
+++ b/biology/Médecine/Paul_Reclus_(chirurgien)/Paul_Reclus_(chirurgien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Reclus est un chirurgien français, né à Orthez (Basses-Pyrénées) le 7 mars 1847[1] et mort à Paris le 29 juillet 1914.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Reclus est un chirurgien français, né à Orthez (Basses-Pyrénées) le 7 mars 1847 et mort à Paris le 29 juillet 1914.
 </t>
         </is>
       </c>
@@ -513,21 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Paul Reclus est le fils de Jacques et Zéline Reclus, et frère d'Élie, Élisée, Onésime et Armand Reclus.
-Un de ses neveux est Maurice Reclus[2].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Reclus est le fils de Jacques et Zéline Reclus, et frère d'Élie, Élisée, Onésime et Armand Reclus.
+Un de ses neveux est Maurice Reclus.
 Il est le cousin germain de Pauline Kergomard née Reclus, fondatrice des écoles maternelles en France.
-C'est un grand ami de Charles Péguy[2].
-Études et carrière
-Il effectue ses études secondaires à Nîmes et sa médecine à Paris. En 1868 il est externe des hôpitaux[2].
-Engagé volontaire, Paul Reclus participe à la guerre de 1870 comme chirurgien de campagne, puis à la Commune de Paris, comme chirurgien du bataillon dans lequel combat son frère Élisée, à la capture duquel il assiste au cours de la bataille de Châtillon.
-Il est interne des hôpitaux de 1871, docteur en 1876, et reçu premier au concours d'agrégation de chirurgie en 1880. En 1886, il est le remplaçant d'Alfred Richet pour ses cours à l'Hotel-Dieu[2]. 
-En 1887, nommé chirurgien des hôpitaux, il est en poste à Bicêtre, puis à Tenon (1888), Broussais (1889), La Pitié (1893), et Laennec (1897).
-En 1904, il est le successeur de Paul Tillaux à la chaire de clinique chirurgicale de la Charité (troisième chaire).
-En 1908, il est le successeur d'Auguste Le Dentu à la chaire de clinique chirurgicale de l'Hôtel-Dieu (première chaire)[2].
-Opinions
-De religion protestante, Paul Reclus est anarchiste en politique, et franc-maçon membre de la loge les Élus d'Iram[2].
-Maire du village d'Orion dans les Basses-Pyrénées, il représente le canton de Salies-de-Béarn au conseil général de ce département de 1897 à sa mort en 1914.
+C'est un grand ami de Charles Péguy.
 </t>
         </is>
       </c>
@@ -553,14 +560,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études et carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue ses études secondaires à Nîmes et sa médecine à Paris. En 1868 il est externe des hôpitaux.
+Engagé volontaire, Paul Reclus participe à la guerre de 1870 comme chirurgien de campagne, puis à la Commune de Paris, comme chirurgien du bataillon dans lequel combat son frère Élisée, à la capture duquel il assiste au cours de la bataille de Châtillon.
+Il est interne des hôpitaux de 1871, docteur en 1876, et reçu premier au concours d'agrégation de chirurgie en 1880. En 1886, il est le remplaçant d'Alfred Richet pour ses cours à l'Hotel-Dieu. 
+En 1887, nommé chirurgien des hôpitaux, il est en poste à Bicêtre, puis à Tenon (1888), Broussais (1889), La Pitié (1893), et Laennec (1897).
+En 1904, il est le successeur de Paul Tillaux à la chaire de clinique chirurgicale de la Charité (troisième chaire).
+En 1908, il est le successeur d'Auguste Le Dentu à la chaire de clinique chirurgicale de l'Hôtel-Dieu (première chaire).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Reclus_(chirurgien)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Reclus_(chirurgien)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Opinions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De religion protestante, Paul Reclus est anarchiste en politique, et franc-maçon membre de la loge les Élus d'Iram.
+Maire du village d'Orion dans les Basses-Pyrénées, il représente le canton de Salies-de-Béarn au conseil général de ce département de 1897 à sa mort en 1914.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Reclus_(chirurgien)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Reclus_(chirurgien)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1886, Paul Reclus montre l'intérêt de l'usage de la cocaïne comme anesthésique local (injection sous-cutanée)[2]. Il inaugure, en 1904, l'emploi de son premier substitut de synthèse, la stovaïne, mis au point par Ernest Fourneau[3]. 
-Il reste connu pour sa description d'une mastopathie kystique diffuse en 1883, appelée également maladie de Reclus[4].
-Autres éponymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1886, Paul Reclus montre l'intérêt de l'usage de la cocaïne comme anesthésique local (injection sous-cutanée). Il inaugure, en 1904, l'emploi de son premier substitut de synthèse, la stovaïne, mis au point par Ernest Fourneau. 
+Il reste connu pour sa description d'une mastopathie kystique diffuse en 1883, appelée également maladie de Reclus.
+Autres éponymes :
 Anesthésie de Reclus : anesthésie locale par infiltrations successives des différents plans anatomiques au fur et à mesure de l'intervention.
 Appareil de Forgue et Reclus : plâtre pour fracture de la clavicule.
 Opération de Mayld-Reclus : technique pour la création d'un anus artificiel au niveau du colon sigmoïde.
@@ -569,38 +658,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Notice sur Paul Broca, Baillère, 1880.
 De la syphilis du testicule, Paris, Masson, 1882.
 Clinique et critique chirurgicales, Paris, Masson, 1884.
 Cliniques chirurgicales de l'Hôtel-Dieu, Masson, 1888.
 Traité de chirurgie (dir., av. Simon Duplay), Masson, 1890.
-Traité de thérapeutique chirurgicale (av. Émile Forgue[5]), Masson, 1892.
+Traité de thérapeutique chirurgicale (av. Émile Forgue), Masson, 1892.
 Inflammations, traumatismes, maladies virulentes, Masson, 1894.
 Cliniques chirurgicales de la Pitié, Masson, 1894.
 La Cocaïne en chirurgie, Paris, Masson, 1895.
@@ -610,66 +701,70 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Honneurs et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Secrétaire général de la Société de chirurgie.
 Membre de la Société d'anatomie.
 Prix Godard en 1882.
 Membre de l'Académie de médecine (1895).
 Prix Montyon en 1900.
-Commandeur de la Légion d'honneur en 1913[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+Commandeur de la Légion d'honneur en 1913.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Paul_Reclus_(chirurgien)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Rue Paul-Reclus à Domme (Dordogne).
 Rue des Frères-Reclus à :
